--- a/charitableContributions_2025.xlsx
+++ b/charitableContributions_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F71539-E35B-428B-859B-74FDEA7DC975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE64EC-C754-443A-972A-2FDF2AA66708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="charitableContributions_2024" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
   <si>
     <t>Item</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>french press</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -1456,10 +1459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D113" si="4">B68*C68</f>
+        <f t="shared" ref="D68:D121" si="4">B68*C68</f>
         <v>0</v>
       </c>
     </row>
@@ -3480,6 +3483,10 @@
       <c r="C114">
         <v>1</v>
       </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3491,6 +3498,10 @@
       <c r="C115">
         <v>6</v>
       </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -3502,6 +3513,10 @@
       <c r="C116">
         <v>1</v>
       </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -3513,6 +3528,10 @@
       <c r="C117">
         <v>1</v>
       </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -3524,6 +3543,10 @@
       <c r="C118">
         <v>21</v>
       </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -3535,6 +3558,10 @@
       <c r="C119">
         <v>2</v>
       </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -3545,6 +3572,25 @@
       </c>
       <c r="C120">
         <v>1</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3597,7 +3643,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>197</v>
+        <v>373</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
